--- a/xlsx/美国本土_intext.xlsx
+++ b/xlsx/美国本土_intext.xlsx
@@ -15,21 +15,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
   <si>
     <t>美国本土</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%AC%E5%9C%9F</t>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%9C%AC%E5%9C%9F</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_美国本土</t>
+    <t>美国</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_美国本土</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A%E7%89%B9%E5%8C%BA</t>
@@ -53,7 +53,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%BB%8D%E6%96%B9</t>
   </si>
   <si>
-    <t>美國軍方</t>
+    <t>美国军方</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%A8%81%E5%A4%B7</t>
@@ -71,34 +71,22 @@
     <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E5%B0%BC%E8%98%87%E9%81%94%E5%B7%9E</t>
   </si>
   <si>
-    <t>明尼蘇達州</t>
+    <t>明尼苏达州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%93%A5%E5%80%AB%E6%AF%94%E4%BA%9E%E7%89%B9%E5%8D%80</t>
   </si>
   <si>
-    <t>華盛頓哥倫比亞特區</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%A0%85%E5%90%88%E7%9C%BE%E5%9C%8B</t>
   </si>
   <si>
-    <t>美利堅合眾國</t>
+    <t>美利坚合众国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E5%9C%B0</t>
   </si>
   <si>
-    <t>內地</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%9C%AC%E5%9C%9F</t>
-  </si>
-  <si>
-    <t>浏览条目正文[c]</t>
-  </si>
-  <si>
-    <t>阅读</t>
+    <t>内地</t>
   </si>
 </sst>
 </file>
@@ -447,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -759,7 +747,7 @@
         <v>19</v>
       </c>
       <c r="F11" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
@@ -785,10 +773,10 @@
         <v>11</v>
       </c>
       <c r="E12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" t="s">
         <v>21</v>
-      </c>
-      <c r="F12" t="s">
-        <v>22</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
@@ -814,11 +802,11 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" t="s">
         <v>23</v>
       </c>
-      <c r="F13" t="s">
-        <v>24</v>
-      </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
@@ -826,64 +814,6 @@
         <v>4</v>
       </c>
       <c r="I13" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" t="n">
-        <v>13</v>
-      </c>
-      <c r="E14" t="s">
-        <v>25</v>
-      </c>
-      <c r="F14" t="s">
-        <v>26</v>
-      </c>
-      <c r="G14" t="n">
-        <v>6</v>
-      </c>
-      <c r="H14" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" t="n">
-        <v>14</v>
-      </c>
-      <c r="E15" t="s">
-        <v>25</v>
-      </c>
-      <c r="F15" t="s">
-        <v>27</v>
-      </c>
-      <c r="G15" t="n">
-        <v>1</v>
-      </c>
-      <c r="H15" t="s">
-        <v>4</v>
-      </c>
-      <c r="I15" t="n">
         <v>3</v>
       </c>
     </row>
